--- a/python問題.xlsx
+++ b/python問題.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/takeshi_ueki/Desktop/work/Python/rjc_python/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD970BAB-E4F1-ED4D-97F3-5C6833BA00C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0B04DF-80DE-B74E-8FA4-175B34FF9739}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="13620" windowHeight="17500" activeTab="1" xr2:uid="{7BDF4646-F462-4CD9-805F-AC96471EE2BA}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="13620" windowHeight="17500" xr2:uid="{7BDF4646-F462-4CD9-805F-AC96471EE2BA}"/>
   </bookViews>
   <sheets>
     <sheet name="問題1" sheetId="2" r:id="rId1"/>
@@ -854,8 +854,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B7F2145-FD6E-45D4-BD2E-D9A8557BC9A9}">
   <dimension ref="B2:I11"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
@@ -914,10 +914,7 @@
         <f>SUM(C3:G3)</f>
         <v>35016266</v>
       </c>
-      <c r="I3" s="7">
-        <f>AVERAGE(C3:G3)</f>
-        <v>7003253.2000000002</v>
-      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" spans="2:9">
       <c r="B4" s="4" t="s">
@@ -942,10 +939,7 @@
         <f t="shared" ref="H4:H7" si="0">SUM(C4:G4)</f>
         <v>14059624</v>
       </c>
-      <c r="I4" s="7">
-        <f t="shared" ref="I4:I7" si="1">AVERAGE(C4:G4)</f>
-        <v>2811924.8</v>
-      </c>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:9">
       <c r="B5" s="4" t="s">
@@ -970,10 +964,7 @@
         <f t="shared" si="0"/>
         <v>10820301</v>
       </c>
-      <c r="I5" s="7">
-        <f t="shared" si="1"/>
-        <v>2164060.2000000002</v>
-      </c>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="4" t="s">
@@ -998,10 +989,7 @@
         <f t="shared" si="0"/>
         <v>20897419</v>
       </c>
-      <c r="I6" s="7">
-        <f t="shared" si="1"/>
-        <v>4179483.8</v>
-      </c>
+      <c r="I6" s="7"/>
     </row>
     <row r="7" spans="2:9">
       <c r="B7" s="4" t="s">
@@ -1026,76 +1014,31 @@
         <f t="shared" si="0"/>
         <v>15220569</v>
       </c>
-      <c r="I7" s="7">
-        <f t="shared" si="1"/>
-        <v>3044113.8</v>
-      </c>
+      <c r="I7" s="7"/>
     </row>
     <row r="8" spans="2:9">
       <c r="B8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="7">
-        <f>SUM(C3:C7)</f>
-        <v>2475570</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" ref="D8:G8" si="2">SUM(D3:D7)</f>
-        <v>33655227</v>
-      </c>
-      <c r="E8" s="7">
-        <f t="shared" si="2"/>
-        <v>45014931</v>
-      </c>
-      <c r="F8" s="7">
-        <f t="shared" si="2"/>
-        <v>1442528</v>
-      </c>
-      <c r="G8" s="7">
-        <f t="shared" si="2"/>
-        <v>13425923</v>
-      </c>
-      <c r="H8" s="7">
-        <f t="shared" ref="H8" si="3">SUM(H3:H7)</f>
-        <v>96014179</v>
-      </c>
-      <c r="I8" s="7">
-        <f t="shared" ref="I8" si="4">SUM(I3:I7)</f>
-        <v>19202835.800000001</v>
-      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
     </row>
     <row r="9" spans="2:9">
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="7">
-        <f>AVERAGE(C3:C7)</f>
-        <v>495114</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" ref="D9:I9" si="5">AVERAGE(D3:D7)</f>
-        <v>6731045.4000000004</v>
-      </c>
-      <c r="E9" s="7">
-        <f t="shared" si="5"/>
-        <v>9002986.1999999993</v>
-      </c>
-      <c r="F9" s="7">
-        <f t="shared" si="5"/>
-        <v>288505.59999999998</v>
-      </c>
-      <c r="G9" s="7">
-        <f t="shared" si="5"/>
-        <v>2685184.6</v>
-      </c>
-      <c r="H9" s="7">
-        <f t="shared" si="5"/>
-        <v>19202835.800000001</v>
-      </c>
-      <c r="I9" s="7">
-        <f t="shared" si="5"/>
-        <v>3840567.16</v>
-      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
     </row>
     <row r="11" spans="2:9">
       <c r="B11" t="s">
@@ -1112,9 +1055,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0897A17-F8AC-461B-86DB-1C88301CD6B3}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <sheetData>
@@ -1138,9 +1079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA09DA47-69FC-4885-B643-3698CEFF4C16}">
   <dimension ref="B2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18"/>
   <cols>
